--- a/resources/experiment 1/metrics/MAPE/incidence/Retinopatía de fondo (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Retinopatía de fondo (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.396007019381744</v>
+        <v>2.396007019381747</v>
       </c>
       <c r="C2" t="n">
-        <v>2.396007019381744</v>
+        <v>2.396007019381743</v>
       </c>
       <c r="D2" t="n">
-        <v>2.396007019381744</v>
+        <v>2.396007019381743</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03141052285040345</v>
+        <v>0.03343662252085296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03141203989633251</v>
+        <v>0.03854421396097765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03141203989633251</v>
+        <v>0.1751469250153707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09838968994884639</v>
+        <v>0.03729126592179306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09838968994884652</v>
+        <v>0.03218526624368307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09838968994884652</v>
+        <v>0.04626265997781376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3236510221129079</v>
+        <v>0.03295216155382702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3236510221129079</v>
+        <v>0.03953824054679839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3236510221129079</v>
+        <v>0.06120857651209916</v>
       </c>
     </row>
   </sheetData>
